--- a/Base/Teams/Giants/2021 Team Data.xlsx
+++ b/Base/Teams/Giants/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8</t>
-  </si>
-  <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11</t>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
+  </si>
+  <si>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61</t>
-  </si>
-  <si>
-    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26</t>
+    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64</t>
+  </si>
+  <si>
+    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17</t>
   </si>
   <si>
     <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22</t>
   </si>
   <si>
-    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39</t>
-  </si>
-  <si>
-    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9</t>
-  </si>
-  <si>
-    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0</t>
+    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36</t>
+  </si>
+  <si>
+    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0</t>
+  </si>
+  <si>
+    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -677,16 +677,16 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>5</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -701,13 +701,13 @@
         <v>133</v>
       </c>
       <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>18</v>
+      </c>
+      <c r="P2">
         <v>9</v>
-      </c>
-      <c r="O2">
-        <v>17</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
       </c>
       <c r="Q2">
         <v>367</v>
@@ -721,37 +721,37 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>294</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>141</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>19</v>
@@ -996,37 +996,37 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="M3">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>357</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L2">
         <v>109</v>
@@ -1251,10 +1251,10 @@
         <v>91</v>
       </c>
       <c r="N2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Giants/2021 Team Data.xlsx
+++ b/Base/Teams/Giants/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
-  </si>
-  <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
+  </si>
+  <si>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64</t>
-  </si>
-  <si>
-    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17</t>
-  </si>
-  <si>
-    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22</t>
-  </si>
-  <si>
-    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36</t>
-  </si>
-  <si>
-    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0</t>
-  </si>
-  <si>
-    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0</t>
+    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71</t>
+  </si>
+  <si>
+    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29</t>
+  </si>
+  <si>
+    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17</t>
+  </si>
+  <si>
+    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18</t>
+  </si>
+  <si>
+    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>133</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -721,37 +721,37 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M3">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>357</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>141</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2">
         <v>19</v>
@@ -996,37 +996,37 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M3">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>427</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>175</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Giants/2021 Team Data.xlsx
+++ b/Base/Teams/Giants/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
-  </si>
-  <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
+  </si>
+  <si>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71</t>
-  </si>
-  <si>
-    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29</t>
-  </si>
-  <si>
-    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17</t>
-  </si>
-  <si>
-    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18</t>
-  </si>
-  <si>
-    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0</t>
+    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60</t>
+  </si>
+  <si>
+    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29</t>
+  </si>
+  <si>
+    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15</t>
+  </si>
+  <si>
+    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51</t>
+  </si>
+  <si>
+    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -677,40 +677,40 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>37</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="M2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>367</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
       <c r="I3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>156</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="M2">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>383</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>190</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,16 +1239,16 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N2">
         <v>50</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Giants/2021 Team Data.xlsx
+++ b/Base/Teams/Giants/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
-  </si>
-  <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2</t>
+  </si>
+  <si>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60</t>
-  </si>
-  <si>
-    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29</t>
-  </si>
-  <si>
-    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15</t>
-  </si>
-  <si>
-    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51</t>
-  </si>
-  <si>
-    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0</t>
+    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51</t>
+  </si>
+  <si>
+    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10</t>
+  </si>
+  <si>
+    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21</t>
+  </si>
+  <si>
+    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36</t>
+  </si>
+  <si>
+    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1</t>
+  </si>
+  <si>
+    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
       <c r="J2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>152</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>435</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>95</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
       <c r="I3">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="M3">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>424</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -952,19 +952,19 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>169</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <v>13</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M3">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>496</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1251,10 +1251,10 @@
         <v>92</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Giants/2021 Team Data.xlsx
+++ b/Base/Teams/Giants/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2</t>
-  </si>
-  <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5</t>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7 8 4 6 2 6 5 4 -1 8 5 1 2 10 8 2 3 3 5 2 -2 4 -3 -1 9 6 4 1 8 3 3 1 1 13 5 7 5 1 3 9 1</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2 4 12 12 -4</t>
+  </si>
+  <si>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0 2 0 -1 4 10 5 3 4 7 2 7 7 9 2 2 2 10 4 4 1 4 -1 1 3 3 0</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5 3 11 8 4 6 23 18 17 4 6 16 8 8 11 10 3 13</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51</t>
-  </si>
-  <si>
-    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10</t>
-  </si>
-  <si>
-    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21</t>
-  </si>
-  <si>
-    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36</t>
-  </si>
-  <si>
-    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1</t>
-  </si>
-  <si>
-    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0</t>
+    <t>63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51 53 51</t>
+  </si>
+  <si>
+    <t>21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10 16 6</t>
+  </si>
+  <si>
+    <t>28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21 26 24 3</t>
+  </si>
+  <si>
+    <t>43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36 46 39 33 38</t>
+  </si>
+  <si>
+    <t>0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t>0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0 15 0 17 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>9</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>152</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -733,25 +733,25 @@
         <v>105</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M3">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>504</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>169</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>452</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M3">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>559</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L2">
         <v>110</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
